--- a/images/barchart.xlsx
+++ b/images/barchart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhartnett/Desktop/PCLJ/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24A40D79-9A71-4B46-85EF-6E3EF6BBD12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D86DA27-748B-5C48-8169-0E60C69CB5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{4797DCBD-2E61-1643-B9BF-501470BEE52A}"/>
   </bookViews>
@@ -1030,22 +1030,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>144165</xdr:rowOff>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>116758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC66A49-0D6C-F542-B578-25B52D495194}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D094EBB-1074-BE40-964A-BE3B0FD9DE2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1067,8 +1067,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3098800" y="5613400"/>
-          <a:ext cx="1651000" cy="1236365"/>
+          <a:off x="2895600" y="5702300"/>
+          <a:ext cx="2044700" cy="1526458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1080,22 +1080,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>691232</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>115561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A80ED17-59F7-A645-92CE-528FBFC152A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD18A1F-8D9E-CD40-A272-970F8D5BC02C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,8 +1117,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638800" y="5613399"/>
-          <a:ext cx="1656432" cy="1231901"/>
+          <a:off x="5511800" y="5702300"/>
+          <a:ext cx="2044700" cy="1525261"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1130,22 +1130,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>749301</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>749301</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>131884</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>116758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBADD0B-B75C-AE43-895F-A0340715812A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5174C208-7677-604D-9A61-9A53D82A54C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,8 +1167,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8178801" y="5613401"/>
-          <a:ext cx="1651000" cy="1224083"/>
+          <a:off x="8077200" y="5702300"/>
+          <a:ext cx="2057400" cy="1526458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1179,23 +1179,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>33309</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>148692</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707F413E-F3BC-2F4C-B976-D2DFC55881AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B28DAE-45F0-FE44-A149-44F71C360CE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,8 +1217,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10764809" y="5613399"/>
-          <a:ext cx="1655791" cy="1240893"/>
+          <a:off x="10668000" y="5702300"/>
+          <a:ext cx="2057400" cy="1531199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1530,7 +1530,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
